--- a/pack.xlsx
+++ b/pack.xlsx
@@ -29106,8 +29106,16 @@
           <t>1,24 TL</t>
         </is>
       </c>
-      <c r="F874" t="inlineStr"/>
-      <c r="G874" t="inlineStr"/>
+      <c r="F874" t="inlineStr">
+        <is>
+          <t>1,23 TL</t>
+        </is>
+      </c>
+      <c r="G874" t="inlineStr">
+        <is>
+          <t>https://steamcommunity.com/market/listings/753/546410-Grab the Bottle Booster Pack</t>
+        </is>
+      </c>
     </row>
     <row r="875">
       <c r="A875" t="n">
@@ -29131,8 +29139,16 @@
           <t>1,24 TL</t>
         </is>
       </c>
-      <c r="F875" t="inlineStr"/>
-      <c r="G875" t="inlineStr"/>
+      <c r="F875" t="inlineStr">
+        <is>
+          <t>1,81 TL</t>
+        </is>
+      </c>
+      <c r="G875" t="inlineStr">
+        <is>
+          <t>https://steamcommunity.com/market/listings/753/283390-Incoming Forces Booster Pack</t>
+        </is>
+      </c>
     </row>
     <row r="876">
       <c r="A876" t="n">
@@ -29158,7 +29174,7 @@
       </c>
       <c r="F876" t="inlineStr">
         <is>
-          <t>1,10 TL</t>
+          <t>1,05 TL</t>
         </is>
       </c>
       <c r="G876" t="inlineStr">
@@ -29552,8 +29568,16 @@
           <t>1,26 TL</t>
         </is>
       </c>
-      <c r="F888" t="inlineStr"/>
-      <c r="G888" t="inlineStr"/>
+      <c r="F888" t="inlineStr">
+        <is>
+          <t>2,92 TL</t>
+        </is>
+      </c>
+      <c r="G888" t="inlineStr">
+        <is>
+          <t>https://steamcommunity.com/market/listings/753/1004240-Hentai Girl Karen Booster Pack</t>
+        </is>
+      </c>
     </row>
     <row r="889">
       <c r="A889" t="n">
@@ -29577,8 +29601,16 @@
           <t>1,26 TL</t>
         </is>
       </c>
-      <c r="F889" t="inlineStr"/>
-      <c r="G889" t="inlineStr"/>
+      <c r="F889" t="inlineStr">
+        <is>
+          <t>8,09 TL</t>
+        </is>
+      </c>
+      <c r="G889" t="inlineStr">
+        <is>
+          <t>https://steamcommunity.com/market/listings/753/844930-Fox Hime Zero Booster Pack</t>
+        </is>
+      </c>
     </row>
     <row r="890">
       <c r="A890" t="n">
@@ -29602,8 +29634,16 @@
           <t>1,26 TL</t>
         </is>
       </c>
-      <c r="F890" t="inlineStr"/>
-      <c r="G890" t="inlineStr"/>
+      <c r="F890" t="inlineStr">
+        <is>
+          <t>1,76 TL</t>
+        </is>
+      </c>
+      <c r="G890" t="inlineStr">
+        <is>
+          <t>https://steamcommunity.com/market/listings/753/1109360-Hentai Mosaique Fix-IT Shoppe Booster Pack</t>
+        </is>
+      </c>
     </row>
     <row r="891">
       <c r="A891" t="n">
@@ -29627,8 +29667,16 @@
           <t>1,26 TL</t>
         </is>
       </c>
-      <c r="F891" t="inlineStr"/>
-      <c r="G891" t="inlineStr"/>
+      <c r="F891" t="inlineStr">
+        <is>
+          <t>2,82 TL</t>
+        </is>
+      </c>
+      <c r="G891" t="inlineStr">
+        <is>
+          <t>https://steamcommunity.com/market/listings/753/1146950-Hentai Girl Fantasy Booster Pack</t>
+        </is>
+      </c>
     </row>
     <row r="892">
       <c r="A892" t="n">
@@ -29652,8 +29700,16 @@
           <t>1,26 TL</t>
         </is>
       </c>
-      <c r="F892" t="inlineStr"/>
-      <c r="G892" t="inlineStr"/>
+      <c r="F892" t="inlineStr">
+        <is>
+          <t>2,95 TL</t>
+        </is>
+      </c>
+      <c r="G892" t="inlineStr">
+        <is>
+          <t>https://steamcommunity.com/market/listings/753/927890-Hentai Girl Linda Booster Pack</t>
+        </is>
+      </c>
     </row>
     <row r="893">
       <c r="A893" t="n">
@@ -29677,8 +29733,16 @@
           <t>1,26 TL</t>
         </is>
       </c>
-      <c r="F893" t="inlineStr"/>
-      <c r="G893" t="inlineStr"/>
+      <c r="F893" t="inlineStr">
+        <is>
+          <t>2,76 TL</t>
+        </is>
+      </c>
+      <c r="G893" t="inlineStr">
+        <is>
+          <t>https://steamcommunity.com/market/listings/753/963690-Hentai Girl Hime Booster Pack</t>
+        </is>
+      </c>
     </row>
     <row r="894">
       <c r="A894" t="n">
@@ -29702,8 +29766,16 @@
           <t>1,26 TL</t>
         </is>
       </c>
-      <c r="F894" t="inlineStr"/>
-      <c r="G894" t="inlineStr"/>
+      <c r="F894" t="inlineStr">
+        <is>
+          <t>3,31 TL</t>
+        </is>
+      </c>
+      <c r="G894" t="inlineStr">
+        <is>
+          <t>https://steamcommunity.com/market/listings/753/998930-Seek Girl Booster Pack</t>
+        </is>
+      </c>
     </row>
     <row r="895">
       <c r="A895" t="n">
@@ -29727,8 +29799,16 @@
           <t>1,26 TL</t>
         </is>
       </c>
-      <c r="F895" t="inlineStr"/>
-      <c r="G895" t="inlineStr"/>
+      <c r="F895" t="inlineStr">
+        <is>
+          <t>2,57 TL</t>
+        </is>
+      </c>
+      <c r="G895" t="inlineStr">
+        <is>
+          <t>https://steamcommunity.com/market/listings/753/1148510-Pretty Angel Booster Pack</t>
+        </is>
+      </c>
     </row>
     <row r="896">
       <c r="A896" t="n">
@@ -29752,8 +29832,16 @@
           <t>1,26 TL</t>
         </is>
       </c>
-      <c r="F896" t="inlineStr"/>
-      <c r="G896" t="inlineStr"/>
+      <c r="F896" t="inlineStr">
+        <is>
+          <t>2,11 TL</t>
+        </is>
+      </c>
+      <c r="G896" t="inlineStr">
+        <is>
+          <t>https://steamcommunity.com/market/listings/753/1212620-Pretty Neko Booster Pack</t>
+        </is>
+      </c>
     </row>
     <row r="897">
       <c r="A897" t="n">
@@ -29777,8 +29865,16 @@
           <t>1,26 TL</t>
         </is>
       </c>
-      <c r="F897" t="inlineStr"/>
-      <c r="G897" t="inlineStr"/>
+      <c r="F897" t="inlineStr">
+        <is>
+          <t>2,95 TL</t>
+        </is>
+      </c>
+      <c r="G897" t="inlineStr">
+        <is>
+          <t>https://steamcommunity.com/market/listings/753/1038740-Fluffy Store Booster Pack</t>
+        </is>
+      </c>
     </row>
     <row r="898">
       <c r="A898" t="n">
@@ -29802,8 +29898,16 @@
           <t>1,26 TL</t>
         </is>
       </c>
-      <c r="F898" t="inlineStr"/>
-      <c r="G898" t="inlineStr"/>
+      <c r="F898" t="inlineStr">
+        <is>
+          <t>1,69 TL</t>
+        </is>
+      </c>
+      <c r="G898" t="inlineStr">
+        <is>
+          <t>https://steamcommunity.com/market/listings/753/779640-妄想症 Deliver Me Booster Pack</t>
+        </is>
+      </c>
     </row>
     <row r="899">
       <c r="A899" t="n">
@@ -29827,8 +29931,16 @@
           <t>1,26 TL</t>
         </is>
       </c>
-      <c r="F899" t="inlineStr"/>
-      <c r="G899" t="inlineStr"/>
+      <c r="F899" t="inlineStr">
+        <is>
+          <t>0,00 TL</t>
+        </is>
+      </c>
+      <c r="G899" t="inlineStr">
+        <is>
+          <t>https://steamcommunity.com/market/listings/753/962970-My 1-6 Lover Booster Pack</t>
+        </is>
+      </c>
     </row>
     <row r="900">
       <c r="A900" t="n">
@@ -29852,8 +29964,16 @@
           <t>1,26 TL</t>
         </is>
       </c>
-      <c r="F900" t="inlineStr"/>
-      <c r="G900" t="inlineStr"/>
+      <c r="F900" t="inlineStr">
+        <is>
+          <t>0,00 TL</t>
+        </is>
+      </c>
+      <c r="G900" t="inlineStr">
+        <is>
+          <t>https://steamcommunity.com/market/listings/753/508200-Bacon Tales - Between Pigs and Wolves Booster Pack</t>
+        </is>
+      </c>
     </row>
     <row r="901">
       <c r="A901" t="n">
@@ -29877,8 +29997,16 @@
           <t>1,26 TL</t>
         </is>
       </c>
-      <c r="F901" t="inlineStr"/>
-      <c r="G901" t="inlineStr"/>
+      <c r="F901" t="inlineStr">
+        <is>
+          <t>2,22 TL</t>
+        </is>
+      </c>
+      <c r="G901" t="inlineStr">
+        <is>
+          <t>https://steamcommunity.com/market/listings/753/873240-Hentai Memory Booster Pack</t>
+        </is>
+      </c>
     </row>
     <row r="902">
       <c r="A902" t="n">
@@ -29902,8 +30030,16 @@
           <t>1,26 TL</t>
         </is>
       </c>
-      <c r="F902" t="inlineStr"/>
-      <c r="G902" t="inlineStr"/>
+      <c r="F902" t="inlineStr">
+        <is>
+          <t>2,57 TL</t>
+        </is>
+      </c>
+      <c r="G902" t="inlineStr">
+        <is>
+          <t>https://steamcommunity.com/market/listings/753/1116210-Our world has not decayed Booster Pack</t>
+        </is>
+      </c>
     </row>
     <row r="903">
       <c r="A903" t="n">
@@ -29927,8 +30063,16 @@
           <t>1,26 TL</t>
         </is>
       </c>
-      <c r="F903" t="inlineStr"/>
-      <c r="G903" t="inlineStr"/>
+      <c r="F903" t="inlineStr">
+        <is>
+          <t>245,15 TL</t>
+        </is>
+      </c>
+      <c r="G903" t="inlineStr">
+        <is>
+          <t>https://steamcommunity.com/market/listings/753/601930-Trianguluv Booster Pack</t>
+        </is>
+      </c>
     </row>
     <row r="904">
       <c r="A904" t="n">
@@ -29952,8 +30096,16 @@
           <t>1,26 TL</t>
         </is>
       </c>
-      <c r="F904" t="inlineStr"/>
-      <c r="G904" t="inlineStr"/>
+      <c r="F904" t="inlineStr">
+        <is>
+          <t>1,78 TL</t>
+        </is>
+      </c>
+      <c r="G904" t="inlineStr">
+        <is>
+          <t>https://steamcommunity.com/market/listings/753/411740-Yet Another World Booster Pack</t>
+        </is>
+      </c>
     </row>
     <row r="905">
       <c r="A905" t="n">
@@ -29977,8 +30129,16 @@
           <t>1,26 TL</t>
         </is>
       </c>
-      <c r="F905" t="inlineStr"/>
-      <c r="G905" t="inlineStr"/>
+      <c r="F905" t="inlineStr">
+        <is>
+          <t>1,67 TL</t>
+        </is>
+      </c>
+      <c r="G905" t="inlineStr">
+        <is>
+          <t>https://steamcommunity.com/market/listings/753/391310-Alien Attack Booster Pack</t>
+        </is>
+      </c>
     </row>
     <row r="906">
       <c r="A906" t="n">
@@ -30002,8 +30162,16 @@
           <t>1,26 TL</t>
         </is>
       </c>
-      <c r="F906" t="inlineStr"/>
-      <c r="G906" t="inlineStr"/>
+      <c r="F906" t="inlineStr">
+        <is>
+          <t>1,53 TL</t>
+        </is>
+      </c>
+      <c r="G906" t="inlineStr">
+        <is>
+          <t>https://steamcommunity.com/market/listings/753/321160-Timber Tennis: Versus Booster Pack</t>
+        </is>
+      </c>
     </row>
     <row r="907">
       <c r="A907" t="n">
@@ -30027,8 +30195,16 @@
           <t>1,26 TL</t>
         </is>
       </c>
-      <c r="F907" t="inlineStr"/>
-      <c r="G907" t="inlineStr"/>
+      <c r="F907" t="inlineStr">
+        <is>
+          <t>0,98 TL</t>
+        </is>
+      </c>
+      <c r="G907" t="inlineStr">
+        <is>
+          <t>https://steamcommunity.com/market/listings/753/600530-Kautic - The Bald Wizard Booster Pack</t>
+        </is>
+      </c>
     </row>
     <row r="908">
       <c r="A908" t="n">
@@ -30052,8 +30228,16 @@
           <t>1,26 TL</t>
         </is>
       </c>
-      <c r="F908" t="inlineStr"/>
-      <c r="G908" t="inlineStr"/>
+      <c r="F908" t="inlineStr">
+        <is>
+          <t>183,39 TL</t>
+        </is>
+      </c>
+      <c r="G908" t="inlineStr">
+        <is>
+          <t>https://steamcommunity.com/market/listings/753/637310-Stream Service Booster Pack</t>
+        </is>
+      </c>
     </row>
     <row r="909">
       <c r="A909" t="n">
@@ -30077,8 +30261,16 @@
           <t>1,26 TL</t>
         </is>
       </c>
-      <c r="F909" t="inlineStr"/>
-      <c r="G909" t="inlineStr"/>
+      <c r="F909" t="inlineStr">
+        <is>
+          <t>2,13 TL</t>
+        </is>
+      </c>
+      <c r="G909" t="inlineStr">
+        <is>
+          <t>https://steamcommunity.com/market/listings/753/354960-An Imp? A Fiend! Booster Pack</t>
+        </is>
+      </c>
     </row>
     <row r="910">
       <c r="A910" t="n">
@@ -30102,8 +30294,16 @@
           <t>1,26 TL</t>
         </is>
       </c>
-      <c r="F910" t="inlineStr"/>
-      <c r="G910" t="inlineStr"/>
+      <c r="F910" t="inlineStr">
+        <is>
+          <t>3,61 TL</t>
+        </is>
+      </c>
+      <c r="G910" t="inlineStr">
+        <is>
+          <t>https://steamcommunity.com/market/listings/753/648120-Pixel Painter Booster Pack</t>
+        </is>
+      </c>
     </row>
     <row r="911">
       <c r="A911" t="n">
@@ -30152,8 +30352,16 @@
           <t>1,30 TL</t>
         </is>
       </c>
-      <c r="F912" t="inlineStr"/>
-      <c r="G912" t="inlineStr"/>
+      <c r="F912" t="inlineStr">
+        <is>
+          <t>1,89 TL</t>
+        </is>
+      </c>
+      <c r="G912" t="inlineStr">
+        <is>
+          <t>https://steamcommunity.com/market/listings/753/224820-Super House of Dead Ninjas Booster Pack</t>
+        </is>
+      </c>
     </row>
     <row r="913">
       <c r="A913" t="n">
@@ -30177,8 +30385,16 @@
           <t>1,30 TL</t>
         </is>
       </c>
-      <c r="F913" t="inlineStr"/>
-      <c r="G913" t="inlineStr"/>
+      <c r="F913" t="inlineStr">
+        <is>
+          <t>4,40 TL</t>
+        </is>
+      </c>
+      <c r="G913" t="inlineStr">
+        <is>
+          <t>https://steamcommunity.com/market/listings/753/554600-Learn Japanese To Survive! Katakana War Booster Pack</t>
+        </is>
+      </c>
     </row>
     <row r="914">
       <c r="A914" t="n">
@@ -30202,8 +30418,16 @@
           <t>1,30 TL</t>
         </is>
       </c>
-      <c r="F914" t="inlineStr"/>
-      <c r="G914" t="inlineStr"/>
+      <c r="F914" t="inlineStr">
+        <is>
+          <t>5,80 TL</t>
+        </is>
+      </c>
+      <c r="G914" t="inlineStr">
+        <is>
+          <t>https://steamcommunity.com/market/listings/753/563810-Fumiko! Booster Pack</t>
+        </is>
+      </c>
     </row>
     <row r="915">
       <c r="A915" t="n">
@@ -30227,8 +30451,16 @@
           <t>1,30 TL</t>
         </is>
       </c>
-      <c r="F915" t="inlineStr"/>
-      <c r="G915" t="inlineStr"/>
+      <c r="F915" t="inlineStr">
+        <is>
+          <t>1,99 TL</t>
+        </is>
+      </c>
+      <c r="G915" t="inlineStr">
+        <is>
+          <t>https://steamcommunity.com/market/listings/753/438270-Learn Japanese To Survive - Hiragana Battle Booster Pack</t>
+        </is>
+      </c>
     </row>
     <row r="916">
       <c r="A916" t="n">
@@ -30252,8 +30484,16 @@
           <t>1,30 TL</t>
         </is>
       </c>
-      <c r="F916" t="inlineStr"/>
-      <c r="G916" t="inlineStr"/>
+      <c r="F916" t="inlineStr">
+        <is>
+          <t>4,55 TL</t>
+        </is>
+      </c>
+      <c r="G916" t="inlineStr">
+        <is>
+          <t>https://steamcommunity.com/market/listings/753/316890-Calvino Noir Booster Pack</t>
+        </is>
+      </c>
     </row>
     <row r="917">
       <c r="A917" t="n">
@@ -30277,8 +30517,16 @@
           <t>1,30 TL</t>
         </is>
       </c>
-      <c r="F917" t="inlineStr"/>
-      <c r="G917" t="inlineStr"/>
+      <c r="F917" t="inlineStr">
+        <is>
+          <t>2,73 TL</t>
+        </is>
+      </c>
+      <c r="G917" t="inlineStr">
+        <is>
+          <t>https://steamcommunity.com/market/listings/753/212110-Sugar Cube: Bittersweet Factory Booster Pack</t>
+        </is>
+      </c>
     </row>
     <row r="918">
       <c r="A918" t="n">
@@ -30302,8 +30550,16 @@
           <t>1,30 TL</t>
         </is>
       </c>
-      <c r="F918" t="inlineStr"/>
-      <c r="G918" t="inlineStr"/>
+      <c r="F918" t="inlineStr">
+        <is>
+          <t>2,89 TL</t>
+        </is>
+      </c>
+      <c r="G918" t="inlineStr">
+        <is>
+          <t>https://steamcommunity.com/market/listings/753/361930-Farm Frenzy: Hurricane Season Booster Pack</t>
+        </is>
+      </c>
     </row>
     <row r="919">
       <c r="A919" t="n">
@@ -30327,8 +30583,16 @@
           <t>1,30 TL</t>
         </is>
       </c>
-      <c r="F919" t="inlineStr"/>
-      <c r="G919" t="inlineStr"/>
+      <c r="F919" t="inlineStr">
+        <is>
+          <t>2,73 TL</t>
+        </is>
+      </c>
+      <c r="G919" t="inlineStr">
+        <is>
+          <t>https://steamcommunity.com/market/listings/753/407290-There Was a Caveman Booster Pack</t>
+        </is>
+      </c>
     </row>
     <row r="920">
       <c r="A920" t="n">
@@ -30352,8 +30616,16 @@
           <t>1,30 TL</t>
         </is>
       </c>
-      <c r="F920" t="inlineStr"/>
-      <c r="G920" t="inlineStr"/>
+      <c r="F920" t="inlineStr">
+        <is>
+          <t>2,21 TL</t>
+        </is>
+      </c>
+      <c r="G920" t="inlineStr">
+        <is>
+          <t>https://steamcommunity.com/market/listings/753/296240-The Promised Land Booster Pack</t>
+        </is>
+      </c>
     </row>
     <row r="921">
       <c r="A921" t="n">
@@ -30377,8 +30649,16 @@
           <t>1,30 TL</t>
         </is>
       </c>
-      <c r="F921" t="inlineStr"/>
-      <c r="G921" t="inlineStr"/>
+      <c r="F921" t="inlineStr">
+        <is>
+          <t>3,79 TL</t>
+        </is>
+      </c>
+      <c r="G921" t="inlineStr">
+        <is>
+          <t>https://steamcommunity.com/market/listings/753/296220-Farm Frenzy 4 Booster Pack</t>
+        </is>
+      </c>
     </row>
     <row r="922">
       <c r="A922" t="n">
@@ -30402,8 +30682,16 @@
           <t>1,30 TL</t>
         </is>
       </c>
-      <c r="F922" t="inlineStr"/>
-      <c r="G922" t="inlineStr"/>
+      <c r="F922" t="inlineStr">
+        <is>
+          <t>3,58 TL</t>
+        </is>
+      </c>
+      <c r="G922" t="inlineStr">
+        <is>
+          <t>https://steamcommunity.com/market/listings/753/338980-MOAI: Build Your Dream Booster Pack</t>
+        </is>
+      </c>
     </row>
     <row r="923">
       <c r="A923" t="n">
@@ -30427,8 +30715,16 @@
           <t>1,30 TL</t>
         </is>
       </c>
-      <c r="F923" t="inlineStr"/>
-      <c r="G923" t="inlineStr"/>
+      <c r="F923" t="inlineStr">
+        <is>
+          <t>1,78 TL</t>
+        </is>
+      </c>
+      <c r="G923" t="inlineStr">
+        <is>
+          <t>https://steamcommunity.com/market/listings/753/328680-Crab Cakes Rescue Booster Pack</t>
+        </is>
+      </c>
     </row>
     <row r="924">
       <c r="A924" t="n">
@@ -30452,8 +30748,16 @@
           <t>1,30 TL</t>
         </is>
       </c>
-      <c r="F924" t="inlineStr"/>
-      <c r="G924" t="inlineStr"/>
+      <c r="F924" t="inlineStr">
+        <is>
+          <t>2,12 TL</t>
+        </is>
+      </c>
+      <c r="G924" t="inlineStr">
+        <is>
+          <t>https://steamcommunity.com/market/listings/753/395930-Farm Frenzy: Heave Ho Booster Pack</t>
+        </is>
+      </c>
     </row>
     <row r="925">
       <c r="A925" t="n">
@@ -30477,8 +30781,16 @@
           <t>1,30 TL</t>
         </is>
       </c>
-      <c r="F925" t="inlineStr"/>
-      <c r="G925" t="inlineStr"/>
+      <c r="F925" t="inlineStr">
+        <is>
+          <t>1,99 TL</t>
+        </is>
+      </c>
+      <c r="G925" t="inlineStr">
+        <is>
+          <t>https://steamcommunity.com/market/listings/753/462570-New Yankee in King Arthur's Court Booster Pack</t>
+        </is>
+      </c>
     </row>
     <row r="926">
       <c r="A926" t="n">
@@ -30502,8 +30814,16 @@
           <t>1,30 TL</t>
         </is>
       </c>
-      <c r="F926" t="inlineStr"/>
-      <c r="G926" t="inlineStr"/>
+      <c r="F926" t="inlineStr">
+        <is>
+          <t>1,96 TL</t>
+        </is>
+      </c>
+      <c r="G926" t="inlineStr">
+        <is>
+          <t>https://steamcommunity.com/market/listings/753/259340-Chicken Shoot Gold Booster Pack</t>
+        </is>
+      </c>
     </row>
     <row r="927">
       <c r="A927" t="n">
@@ -30552,8 +30872,16 @@
           <t>1,30 TL</t>
         </is>
       </c>
-      <c r="F928" t="inlineStr"/>
-      <c r="G928" t="inlineStr"/>
+      <c r="F928" t="inlineStr">
+        <is>
+          <t>2,66 TL</t>
+        </is>
+      </c>
+      <c r="G928" t="inlineStr">
+        <is>
+          <t>https://steamcommunity.com/market/listings/753/338960-Rescue Team 1 Booster Pack</t>
+        </is>
+      </c>
     </row>
     <row r="929">
       <c r="A929" t="n">
@@ -30577,8 +30905,16 @@
           <t>1,30 TL</t>
         </is>
       </c>
-      <c r="F929" t="inlineStr"/>
-      <c r="G929" t="inlineStr"/>
+      <c r="F929" t="inlineStr">
+        <is>
+          <t>1,99 TL</t>
+        </is>
+      </c>
+      <c r="G929" t="inlineStr">
+        <is>
+          <t>https://steamcommunity.com/market/listings/753/464070-Diorama Battle of NINJA Booster Pack</t>
+        </is>
+      </c>
     </row>
     <row r="930">
       <c r="A930" t="n">
@@ -30602,8 +30938,16 @@
           <t>1,30 TL</t>
         </is>
       </c>
-      <c r="F930" t="inlineStr"/>
-      <c r="G930" t="inlineStr"/>
+      <c r="F930" t="inlineStr">
+        <is>
+          <t>1,55 TL</t>
+        </is>
+      </c>
+      <c r="G930" t="inlineStr">
+        <is>
+          <t>https://steamcommunity.com/market/listings/753/275490-Canyon Capers Booster Pack</t>
+        </is>
+      </c>
     </row>
     <row r="931">
       <c r="A931" t="n">
@@ -30627,8 +30971,16 @@
           <t>1,30 TL</t>
         </is>
       </c>
-      <c r="F931" t="inlineStr"/>
-      <c r="G931" t="inlineStr"/>
+      <c r="F931" t="inlineStr">
+        <is>
+          <t>1,67 TL</t>
+        </is>
+      </c>
+      <c r="G931" t="inlineStr">
+        <is>
+          <t>https://steamcommunity.com/market/listings/753/540610-Delicious! Pretty Girls Mahjong Solitaire Booster Pack</t>
+        </is>
+      </c>
     </row>
     <row r="932">
       <c r="A932" t="n">
@@ -30652,8 +31004,16 @@
           <t>1,30 TL</t>
         </is>
       </c>
-      <c r="F932" t="inlineStr"/>
-      <c r="G932" t="inlineStr"/>
+      <c r="F932" t="inlineStr">
+        <is>
+          <t>2,26 TL</t>
+        </is>
+      </c>
+      <c r="G932" t="inlineStr">
+        <is>
+          <t>https://steamcommunity.com/market/listings/753/462580-New Yankee in Santa's Service Booster Pack</t>
+        </is>
+      </c>
     </row>
     <row r="933">
       <c r="A933" t="n">
@@ -30677,8 +31037,16 @@
           <t>1,30 TL</t>
         </is>
       </c>
-      <c r="F933" t="inlineStr"/>
-      <c r="G933" t="inlineStr"/>
+      <c r="F933" t="inlineStr">
+        <is>
+          <t>2,94 TL</t>
+        </is>
+      </c>
+      <c r="G933" t="inlineStr">
+        <is>
+          <t>https://steamcommunity.com/market/listings/753/354310-Claws &amp;amp; Feathers Booster Pack</t>
+        </is>
+      </c>
     </row>
     <row r="934">
       <c r="A934" t="n">
@@ -30702,8 +31070,16 @@
           <t>1,30 TL</t>
         </is>
       </c>
-      <c r="F934" t="inlineStr"/>
-      <c r="G934" t="inlineStr"/>
+      <c r="F934" t="inlineStr">
+        <is>
+          <t>1,90 TL</t>
+        </is>
+      </c>
+      <c r="G934" t="inlineStr">
+        <is>
+          <t>https://steamcommunity.com/market/listings/753/286360-Shadows on the Vatican - Act I: Greed Booster Pack</t>
+        </is>
+      </c>
     </row>
     <row r="935">
       <c r="A935" t="n">
@@ -30727,8 +31103,16 @@
           <t>1,30 TL</t>
         </is>
       </c>
-      <c r="F935" t="inlineStr"/>
-      <c r="G935" t="inlineStr"/>
+      <c r="F935" t="inlineStr">
+        <is>
+          <t>2,94 TL</t>
+        </is>
+      </c>
+      <c r="G935" t="inlineStr">
+        <is>
+          <t>https://steamcommunity.com/market/listings/753/361970-Weather Lord: The Successor's Path Booster Pack</t>
+        </is>
+      </c>
     </row>
     <row r="936">
       <c r="A936" t="n">
@@ -30752,8 +31136,16 @@
           <t>1,30 TL</t>
         </is>
       </c>
-      <c r="F936" t="inlineStr"/>
-      <c r="G936" t="inlineStr"/>
+      <c r="F936" t="inlineStr">
+        <is>
+          <t>4,79 TL</t>
+        </is>
+      </c>
+      <c r="G936" t="inlineStr">
+        <is>
+          <t>https://steamcommunity.com/market/listings/753/320610-Questerium: Sinister Trinity HD Booster Pack</t>
+        </is>
+      </c>
     </row>
     <row r="937">
       <c r="A937" t="n">
@@ -30777,8 +31169,16 @@
           <t>1,30 TL</t>
         </is>
       </c>
-      <c r="F937" t="inlineStr"/>
-      <c r="G937" t="inlineStr"/>
+      <c r="F937" t="inlineStr">
+        <is>
+          <t>2,80 TL</t>
+        </is>
+      </c>
+      <c r="G937" t="inlineStr">
+        <is>
+          <t>https://steamcommunity.com/market/listings/753/409090-The Big Secret of a Small Town Booster Pack</t>
+        </is>
+      </c>
     </row>
     <row r="938">
       <c r="A938" t="n">
@@ -30802,8 +31202,16 @@
           <t>1,30 TL</t>
         </is>
       </c>
-      <c r="F938" t="inlineStr"/>
-      <c r="G938" t="inlineStr"/>
+      <c r="F938" t="inlineStr">
+        <is>
+          <t>2,45 TL</t>
+        </is>
+      </c>
+      <c r="G938" t="inlineStr">
+        <is>
+          <t>https://steamcommunity.com/market/listings/753/461840-Zenge Booster Pack</t>
+        </is>
+      </c>
     </row>
     <row r="939">
       <c r="A939" t="n">
@@ -30827,8 +31235,16 @@
           <t>1,30 TL</t>
         </is>
       </c>
-      <c r="F939" t="inlineStr"/>
-      <c r="G939" t="inlineStr"/>
+      <c r="F939" t="inlineStr">
+        <is>
+          <t>1,23 TL</t>
+        </is>
+      </c>
+      <c r="G939" t="inlineStr">
+        <is>
+          <t>https://steamcommunity.com/market/listings/753/579230-Alpacapaca Dash Booster Pack</t>
+        </is>
+      </c>
     </row>
     <row r="940">
       <c r="A940" t="n">
@@ -30852,8 +31268,16 @@
           <t>1,30 TL</t>
         </is>
       </c>
-      <c r="F940" t="inlineStr"/>
-      <c r="G940" t="inlineStr"/>
+      <c r="F940" t="inlineStr">
+        <is>
+          <t>1,99 TL</t>
+        </is>
+      </c>
+      <c r="G940" t="inlineStr">
+        <is>
+          <t>https://steamcommunity.com/market/listings/753/307350-Nux Booster Pack</t>
+        </is>
+      </c>
     </row>
     <row r="941">
       <c r="A941" t="n">
@@ -30877,8 +31301,16 @@
           <t>1,30 TL</t>
         </is>
       </c>
-      <c r="F941" t="inlineStr"/>
-      <c r="G941" t="inlineStr"/>
+      <c r="F941" t="inlineStr">
+        <is>
+          <t>2,46 TL</t>
+        </is>
+      </c>
+      <c r="G941" t="inlineStr">
+        <is>
+          <t>https://steamcommunity.com/market/listings/753/286830-Hard Truck Apocalypse: Arcade - Ex Machina: Arcade Booster Pack</t>
+        </is>
+      </c>
     </row>
     <row r="942">
       <c r="A942" t="n">
@@ -30952,8 +31384,16 @@
           <t>1,32 TL</t>
         </is>
       </c>
-      <c r="F944" t="inlineStr"/>
-      <c r="G944" t="inlineStr"/>
+      <c r="F944" t="inlineStr">
+        <is>
+          <t>1,73 TL</t>
+        </is>
+      </c>
+      <c r="G944" t="inlineStr">
+        <is>
+          <t>https://steamcommunity.com/market/listings/753/527750-Merger 3D Booster Pack</t>
+        </is>
+      </c>
     </row>
     <row r="945">
       <c r="A945" t="n">
@@ -30977,8 +31417,16 @@
           <t>1,34 TL</t>
         </is>
       </c>
-      <c r="F945" t="inlineStr"/>
-      <c r="G945" t="inlineStr"/>
+      <c r="F945" t="inlineStr">
+        <is>
+          <t>14,76 TL</t>
+        </is>
+      </c>
+      <c r="G945" t="inlineStr">
+        <is>
+          <t>https://steamcommunity.com/market/listings/753/610810-Your Friend Hana Booster Pack</t>
+        </is>
+      </c>
     </row>
     <row r="946">
       <c r="A946" t="n">
@@ -31002,8 +31450,16 @@
           <t>1,35 TL</t>
         </is>
       </c>
-      <c r="F946" t="inlineStr"/>
-      <c r="G946" t="inlineStr"/>
+      <c r="F946" t="inlineStr">
+        <is>
+          <t>18,55 TL</t>
+        </is>
+      </c>
+      <c r="G946" t="inlineStr">
+        <is>
+          <t>https://steamcommunity.com/market/listings/753/565690-Ayakashigami Booster Pack</t>
+        </is>
+      </c>
     </row>
     <row r="947">
       <c r="A947" t="n">
@@ -31027,8 +31483,16 @@
           <t>1,35 TL</t>
         </is>
       </c>
-      <c r="F947" t="inlineStr"/>
-      <c r="G947" t="inlineStr"/>
+      <c r="F947" t="inlineStr">
+        <is>
+          <t>4,64 TL</t>
+        </is>
+      </c>
+      <c r="G947" t="inlineStr">
+        <is>
+          <t>https://steamcommunity.com/market/listings/753/353070-Ghost Encounters: Deadwood - Collector's Edition Booster Pack</t>
+        </is>
+      </c>
     </row>
     <row r="948">
       <c r="A948" t="n">
@@ -31052,8 +31516,16 @@
           <t>1,35 TL</t>
         </is>
       </c>
-      <c r="F948" t="inlineStr"/>
-      <c r="G948" t="inlineStr"/>
+      <c r="F948" t="inlineStr">
+        <is>
+          <t>2,11 TL</t>
+        </is>
+      </c>
+      <c r="G948" t="inlineStr">
+        <is>
+          <t>https://steamcommunity.com/market/listings/753/470270-Tribal Pass Booster Pack</t>
+        </is>
+      </c>
     </row>
     <row r="949">
       <c r="A949" t="n">
@@ -31077,8 +31549,16 @@
           <t>1,35 TL</t>
         </is>
       </c>
-      <c r="F949" t="inlineStr"/>
-      <c r="G949" t="inlineStr"/>
+      <c r="F949" t="inlineStr">
+        <is>
+          <t>1,31 TL</t>
+        </is>
+      </c>
+      <c r="G949" t="inlineStr">
+        <is>
+          <t>https://steamcommunity.com/market/listings/753/375250-Pizza Express Booster Pack</t>
+        </is>
+      </c>
     </row>
     <row r="950">
       <c r="A950" t="n">
@@ -31102,8 +31582,16 @@
           <t>1,35 TL</t>
         </is>
       </c>
-      <c r="F950" t="inlineStr"/>
-      <c r="G950" t="inlineStr"/>
+      <c r="F950" t="inlineStr">
+        <is>
+          <t>1,47 TL</t>
+        </is>
+      </c>
+      <c r="G950" t="inlineStr">
+        <is>
+          <t>https://steamcommunity.com/market/listings/753/255300-Journey of a Roach Booster Pack</t>
+        </is>
+      </c>
     </row>
     <row r="951">
       <c r="A951" t="n">
@@ -31127,8 +31615,16 @@
           <t>1,35 TL</t>
         </is>
       </c>
-      <c r="F951" t="inlineStr"/>
-      <c r="G951" t="inlineStr"/>
+      <c r="F951" t="inlineStr">
+        <is>
+          <t>0,99 TL</t>
+        </is>
+      </c>
+      <c r="G951" t="inlineStr">
+        <is>
+          <t>https://steamcommunity.com/market/listings/753/351340-Belladonna Booster Pack</t>
+        </is>
+      </c>
     </row>
     <row r="952">
       <c r="A952" t="n">
@@ -31152,8 +31648,16 @@
           <t>1,35 TL</t>
         </is>
       </c>
-      <c r="F952" t="inlineStr"/>
-      <c r="G952" t="inlineStr"/>
+      <c r="F952" t="inlineStr">
+        <is>
+          <t>2,92 TL</t>
+        </is>
+      </c>
+      <c r="G952" t="inlineStr">
+        <is>
+          <t>https://steamcommunity.com/market/listings/753/368250-Valiant: Resurrection Booster Pack</t>
+        </is>
+      </c>
     </row>
     <row r="953">
       <c r="A953" t="n">
@@ -31177,8 +31681,16 @@
           <t>1,35 TL</t>
         </is>
       </c>
-      <c r="F953" t="inlineStr"/>
-      <c r="G953" t="inlineStr"/>
+      <c r="F953" t="inlineStr">
+        <is>
+          <t>1,57 TL</t>
+        </is>
+      </c>
+      <c r="G953" t="inlineStr">
+        <is>
+          <t>https://steamcommunity.com/market/listings/753/392280-The Franz Kafka Videogame Booster Pack</t>
+        </is>
+      </c>
     </row>
     <row r="954">
       <c r="A954" t="n">
@@ -31202,8 +31714,16 @@
           <t>1,35 TL</t>
         </is>
       </c>
-      <c r="F954" t="inlineStr"/>
-      <c r="G954" t="inlineStr"/>
+      <c r="F954" t="inlineStr">
+        <is>
+          <t>1,99 TL</t>
+        </is>
+      </c>
+      <c r="G954" t="inlineStr">
+        <is>
+          <t>https://steamcommunity.com/market/listings/753/705740-Car Demolition Clicker Booster Pack</t>
+        </is>
+      </c>
     </row>
     <row r="955">
       <c r="A955" t="n">
@@ -31227,8 +31747,16 @@
           <t>1,35 TL</t>
         </is>
       </c>
-      <c r="F955" t="inlineStr"/>
-      <c r="G955" t="inlineStr"/>
+      <c r="F955" t="inlineStr">
+        <is>
+          <t>2,41 TL</t>
+        </is>
+      </c>
+      <c r="G955" t="inlineStr">
+        <is>
+          <t>https://steamcommunity.com/market/listings/753/456130-Space Scaven Booster Pack</t>
+        </is>
+      </c>
     </row>
     <row r="956">
       <c r="A956" t="n">
@@ -31252,8 +31780,16 @@
           <t>1,35 TL</t>
         </is>
       </c>
-      <c r="F956" t="inlineStr"/>
-      <c r="G956" t="inlineStr"/>
+      <c r="F956" t="inlineStr">
+        <is>
+          <t>5,56 TL</t>
+        </is>
+      </c>
+      <c r="G956" t="inlineStr">
+        <is>
+          <t>https://steamcommunity.com/market/listings/753/610560-Tales of the Lumminai Booster Pack</t>
+        </is>
+      </c>
     </row>
     <row r="957">
       <c r="A957" t="n">
@@ -31277,8 +31813,16 @@
           <t>1,36 TL</t>
         </is>
       </c>
-      <c r="F957" t="inlineStr"/>
-      <c r="G957" t="inlineStr"/>
+      <c r="F957" t="inlineStr">
+        <is>
+          <t>1,47 TL</t>
+        </is>
+      </c>
+      <c r="G957" t="inlineStr">
+        <is>
+          <t>https://steamcommunity.com/market/listings/753/448690-Lionessy Story Booster Pack</t>
+        </is>
+      </c>
     </row>
     <row r="958">
       <c r="A958" t="n">
@@ -31296,8 +31840,16 @@
         <v>270090</v>
       </c>
       <c r="E958" t="inlineStr"/>
-      <c r="F958" t="inlineStr"/>
-      <c r="G958" t="inlineStr"/>
+      <c r="F958" t="inlineStr">
+        <is>
+          <t>2,09 TL</t>
+        </is>
+      </c>
+      <c r="G958" t="inlineStr">
+        <is>
+          <t>https://steamcommunity.com/market/listings/753/270090-N.P.P.D. RUSH - The milk of Ultra violet Booster Pack</t>
+        </is>
+      </c>
     </row>
     <row r="959">
       <c r="A959" t="n">
@@ -31321,8 +31873,16 @@
           <t>1,36 TL</t>
         </is>
       </c>
-      <c r="F959" t="inlineStr"/>
-      <c r="G959" t="inlineStr"/>
+      <c r="F959" t="inlineStr">
+        <is>
+          <t>17,53 TL</t>
+        </is>
+      </c>
+      <c r="G959" t="inlineStr">
+        <is>
+          <t>https://steamcommunity.com/market/listings/753/280460-Pulstar Booster Pack</t>
+        </is>
+      </c>
     </row>
     <row r="960">
       <c r="A960" t="n">
@@ -31346,8 +31906,16 @@
           <t>1,38 TL</t>
         </is>
       </c>
-      <c r="F960" t="inlineStr"/>
-      <c r="G960" t="inlineStr"/>
+      <c r="F960" t="inlineStr">
+        <is>
+          <t>1,72 TL</t>
+        </is>
+      </c>
+      <c r="G960" t="inlineStr">
+        <is>
+          <t>https://steamcommunity.com/market/listings/753/397940-No Time To Live Booster Pack</t>
+        </is>
+      </c>
     </row>
     <row r="961">
       <c r="A961" t="n">
@@ -31371,8 +31939,16 @@
           <t>1,39 TL</t>
         </is>
       </c>
-      <c r="F961" t="inlineStr"/>
-      <c r="G961" t="inlineStr"/>
+      <c r="F961" t="inlineStr">
+        <is>
+          <t>1,51 TL</t>
+        </is>
+      </c>
+      <c r="G961" t="inlineStr">
+        <is>
+          <t>https://steamcommunity.com/market/listings/753/269210-Hero Siege Booster Pack</t>
+        </is>
+      </c>
     </row>
     <row r="962">
       <c r="A962" t="n">
@@ -31396,8 +31972,16 @@
           <t>1,39 TL</t>
         </is>
       </c>
-      <c r="F962" t="inlineStr"/>
-      <c r="G962" t="inlineStr"/>
+      <c r="F962" t="inlineStr">
+        <is>
+          <t>1,84 TL</t>
+        </is>
+      </c>
+      <c r="G962" t="inlineStr">
+        <is>
+          <t>https://steamcommunity.com/market/listings/753/1171310-Valakas Story Booster Pack</t>
+        </is>
+      </c>
     </row>
     <row r="963">
       <c r="A963" t="n">
@@ -31415,8 +31999,16 @@
         <v>217100</v>
       </c>
       <c r="E963" t="inlineStr"/>
-      <c r="F963" t="inlineStr"/>
-      <c r="G963" t="inlineStr"/>
+      <c r="F963" t="inlineStr">
+        <is>
+          <t>0,84 TL</t>
+        </is>
+      </c>
+      <c r="G963" t="inlineStr">
+        <is>
+          <t>https://steamcommunity.com/market/listings/753/217100-Dementium II HD Booster Pack</t>
+        </is>
+      </c>
     </row>
     <row r="964">
       <c r="A964" t="n">
@@ -31440,8 +32032,16 @@
           <t>1,40 TL</t>
         </is>
       </c>
-      <c r="F964" t="inlineStr"/>
-      <c r="G964" t="inlineStr"/>
+      <c r="F964" t="inlineStr">
+        <is>
+          <t>4,30 TL</t>
+        </is>
+      </c>
+      <c r="G964" t="inlineStr">
+        <is>
+          <t>https://steamcommunity.com/market/listings/753/495890-Montaro Booster Pack</t>
+        </is>
+      </c>
     </row>
     <row r="965">
       <c r="A965" t="n">
@@ -31465,8 +32065,16 @@
           <t>1,40 TL</t>
         </is>
       </c>
-      <c r="F965" t="inlineStr"/>
-      <c r="G965" t="inlineStr"/>
+      <c r="F965" t="inlineStr">
+        <is>
+          <t>0,98 TL</t>
+        </is>
+      </c>
+      <c r="G965" t="inlineStr">
+        <is>
+          <t>https://steamcommunity.com/market/listings/753/565720-Pretty Girls Panic! Booster Pack</t>
+        </is>
+      </c>
     </row>
     <row r="966">
       <c r="A966" t="n">
@@ -31484,8 +32092,16 @@
         <v>359050</v>
       </c>
       <c r="E966" t="inlineStr"/>
-      <c r="F966" t="inlineStr"/>
-      <c r="G966" t="inlineStr"/>
+      <c r="F966" t="inlineStr">
+        <is>
+          <t>2,46 TL</t>
+        </is>
+      </c>
+      <c r="G966" t="inlineStr">
+        <is>
+          <t>https://steamcommunity.com/market/listings/753/359050-Shower With Your Dad Simulator 2015: Do You Still Shower With Your Dad Booster Pack</t>
+        </is>
+      </c>
     </row>
     <row r="967">
       <c r="A967" t="n">
@@ -31509,8 +32125,16 @@
           <t>1,40 TL</t>
         </is>
       </c>
-      <c r="F967" t="inlineStr"/>
-      <c r="G967" t="inlineStr"/>
+      <c r="F967" t="inlineStr">
+        <is>
+          <t>1,74 TL</t>
+        </is>
+      </c>
+      <c r="G967" t="inlineStr">
+        <is>
+          <t>https://steamcommunity.com/market/listings/753/631830-Sarcophag Booster Pack</t>
+        </is>
+      </c>
     </row>
     <row r="968">
       <c r="A968" t="n">
@@ -31534,8 +32158,16 @@
           <t>1,40 TL</t>
         </is>
       </c>
-      <c r="F968" t="inlineStr"/>
-      <c r="G968" t="inlineStr"/>
+      <c r="F968" t="inlineStr">
+        <is>
+          <t>9,54 TL</t>
+        </is>
+      </c>
+      <c r="G968" t="inlineStr">
+        <is>
+          <t>https://steamcommunity.com/market/listings/753/613010-Secret in Story Booster Pack</t>
+        </is>
+      </c>
     </row>
     <row r="969">
       <c r="A969" t="n">
@@ -31559,8 +32191,16 @@
           <t>1,40 TL</t>
         </is>
       </c>
-      <c r="F969" t="inlineStr"/>
-      <c r="G969" t="inlineStr"/>
+      <c r="F969" t="inlineStr">
+        <is>
+          <t>1,46 TL</t>
+        </is>
+      </c>
+      <c r="G969" t="inlineStr">
+        <is>
+          <t>https://steamcommunity.com/market/listings/753/497400-1 Moment Of Time: Silentville Booster Pack</t>
+        </is>
+      </c>
     </row>
     <row r="970">
       <c r="A970" t="n">
@@ -31584,8 +32224,16 @@
           <t>1,40 TL</t>
         </is>
       </c>
-      <c r="F970" t="inlineStr"/>
-      <c r="G970" t="inlineStr"/>
+      <c r="F970" t="inlineStr">
+        <is>
+          <t>2,01 TL</t>
+        </is>
+      </c>
+      <c r="G970" t="inlineStr">
+        <is>
+          <t>https://steamcommunity.com/market/listings/753/434680-Lamia's Game Room Booster Pack</t>
+        </is>
+      </c>
     </row>
     <row r="971">
       <c r="A971" t="n">
@@ -31609,8 +32257,16 @@
           <t>1,40 TL</t>
         </is>
       </c>
-      <c r="F971" t="inlineStr"/>
-      <c r="G971" t="inlineStr"/>
+      <c r="F971" t="inlineStr">
+        <is>
+          <t>1,39 TL</t>
+        </is>
+      </c>
+      <c r="G971" t="inlineStr">
+        <is>
+          <t>https://steamcommunity.com/market/listings/753/509600-BattleTime Booster Pack</t>
+        </is>
+      </c>
     </row>
     <row r="972">
       <c r="A972" t="n">
@@ -31634,8 +32290,16 @@
           <t>1,40 TL</t>
         </is>
       </c>
-      <c r="F972" t="inlineStr"/>
-      <c r="G972" t="inlineStr"/>
+      <c r="F972" t="inlineStr">
+        <is>
+          <t>2,94 TL</t>
+        </is>
+      </c>
+      <c r="G972" t="inlineStr">
+        <is>
+          <t>https://steamcommunity.com/market/listings/753/602200-Dreamlike Worlds Booster Pack</t>
+        </is>
+      </c>
     </row>
     <row r="973">
       <c r="A973" t="n">
@@ -31659,8 +32323,16 @@
           <t>1,40 TL</t>
         </is>
       </c>
-      <c r="F973" t="inlineStr"/>
-      <c r="G973" t="inlineStr"/>
+      <c r="F973" t="inlineStr">
+        <is>
+          <t>1,79 TL</t>
+        </is>
+      </c>
+      <c r="G973" t="inlineStr">
+        <is>
+          <t>https://steamcommunity.com/market/listings/753/326180-Sinister City Booster Pack</t>
+        </is>
+      </c>
     </row>
     <row r="974">
       <c r="A974" t="n">
@@ -31684,8 +32356,16 @@
           <t>1,42 TL</t>
         </is>
       </c>
-      <c r="F974" t="inlineStr"/>
-      <c r="G974" t="inlineStr"/>
+      <c r="F974" t="inlineStr">
+        <is>
+          <t>6,50 TL</t>
+        </is>
+      </c>
+      <c r="G974" t="inlineStr">
+        <is>
+          <t>https://steamcommunity.com/market/listings/753/1003520-Hentai Crush Booster Pack</t>
+        </is>
+      </c>
     </row>
     <row r="975">
       <c r="A975" t="n">
@@ -31709,8 +32389,16 @@
           <t>1,42 TL</t>
         </is>
       </c>
-      <c r="F975" t="inlineStr"/>
-      <c r="G975" t="inlineStr"/>
+      <c r="F975" t="inlineStr">
+        <is>
+          <t>2,99 TL</t>
+        </is>
+      </c>
+      <c r="G975" t="inlineStr">
+        <is>
+          <t>https://steamcommunity.com/market/listings/753/1113680-Hentai Girl Division Booster Pack</t>
+        </is>
+      </c>
     </row>
     <row r="976">
       <c r="A976" t="n">
@@ -31734,8 +32422,16 @@
           <t>1,42 TL</t>
         </is>
       </c>
-      <c r="F976" t="inlineStr"/>
-      <c r="G976" t="inlineStr"/>
+      <c r="F976" t="inlineStr">
+        <is>
+          <t>0,84 TL</t>
+        </is>
+      </c>
+      <c r="G976" t="inlineStr">
+        <is>
+          <t>https://steamcommunity.com/market/listings/753/308000-Gold Rush! Classic Booster Pack</t>
+        </is>
+      </c>
     </row>
     <row r="977">
       <c r="A977" t="n">
@@ -31759,8 +32455,16 @@
           <t>1,44 TL</t>
         </is>
       </c>
-      <c r="F977" t="inlineStr"/>
-      <c r="G977" t="inlineStr"/>
+      <c r="F977" t="inlineStr">
+        <is>
+          <t>1,47 TL</t>
+        </is>
+      </c>
+      <c r="G977" t="inlineStr">
+        <is>
+          <t>https://steamcommunity.com/market/listings/753/307230-I, Zombie Booster Pack</t>
+        </is>
+      </c>
     </row>
     <row r="978">
       <c r="A978" t="n">
@@ -31784,8 +32488,16 @@
           <t>1,47 TL</t>
         </is>
       </c>
-      <c r="F978" t="inlineStr"/>
-      <c r="G978" t="inlineStr"/>
+      <c r="F978" t="inlineStr">
+        <is>
+          <t>1,49 TL</t>
+        </is>
+      </c>
+      <c r="G978" t="inlineStr">
+        <is>
+          <t>https://steamcommunity.com/market/listings/753/533300-Zup! Booster Pack</t>
+        </is>
+      </c>
     </row>
     <row r="979">
       <c r="A979" t="n">
@@ -31809,8 +32521,16 @@
           <t>1,47 TL</t>
         </is>
       </c>
-      <c r="F979" t="inlineStr"/>
-      <c r="G979" t="inlineStr"/>
+      <c r="F979" t="inlineStr">
+        <is>
+          <t>7,30 TL</t>
+        </is>
+      </c>
+      <c r="G979" t="inlineStr">
+        <is>
+          <t>https://steamcommunity.com/market/listings/753/799070-Zup! 8 Booster Pack</t>
+        </is>
+      </c>
     </row>
     <row r="980">
       <c r="A980" t="n">
@@ -31834,8 +32554,16 @@
           <t>1,47 TL</t>
         </is>
       </c>
-      <c r="F980" t="inlineStr"/>
-      <c r="G980" t="inlineStr"/>
+      <c r="F980" t="inlineStr">
+        <is>
+          <t>2,04 TL</t>
+        </is>
+      </c>
+      <c r="G980" t="inlineStr">
+        <is>
+          <t>https://steamcommunity.com/market/listings/753/1271710-LEWDAPOCALYPSE Booster Pack</t>
+        </is>
+      </c>
     </row>
     <row r="981">
       <c r="A981" t="n">
@@ -31859,8 +32587,16 @@
           <t>1,47 TL</t>
         </is>
       </c>
-      <c r="F981" t="inlineStr"/>
-      <c r="G981" t="inlineStr"/>
+      <c r="F981" t="inlineStr">
+        <is>
+          <t>2,65 TL</t>
+        </is>
+      </c>
+      <c r="G981" t="inlineStr">
+        <is>
+          <t>https://steamcommunity.com/market/listings/753/1098340-Zup! 9 Booster Pack</t>
+        </is>
+      </c>
     </row>
     <row r="982">
       <c r="A982" t="n">
@@ -31884,8 +32620,16 @@
           <t>1,47 TL</t>
         </is>
       </c>
-      <c r="F982" t="inlineStr"/>
-      <c r="G982" t="inlineStr"/>
+      <c r="F982" t="inlineStr">
+        <is>
+          <t>2,81 TL</t>
+        </is>
+      </c>
+      <c r="G982" t="inlineStr">
+        <is>
+          <t>https://steamcommunity.com/market/listings/753/658560-Zup! 7 Booster Pack</t>
+        </is>
+      </c>
     </row>
     <row r="983">
       <c r="A983" t="n">
@@ -31909,8 +32653,16 @@
           <t>1,47 TL</t>
         </is>
       </c>
-      <c r="F983" t="inlineStr"/>
-      <c r="G983" t="inlineStr"/>
+      <c r="F983" t="inlineStr">
+        <is>
+          <t>2,13 TL</t>
+        </is>
+      </c>
+      <c r="G983" t="inlineStr">
+        <is>
+          <t>https://steamcommunity.com/market/listings/753/645090-Zup! 5 Booster Pack</t>
+        </is>
+      </c>
     </row>
     <row r="984">
       <c r="A984" t="n">
@@ -31934,8 +32686,16 @@
           <t>1,47 TL</t>
         </is>
       </c>
-      <c r="F984" t="inlineStr"/>
-      <c r="G984" t="inlineStr"/>
+      <c r="F984" t="inlineStr">
+        <is>
+          <t>2,01 TL</t>
+        </is>
+      </c>
+      <c r="G984" t="inlineStr">
+        <is>
+          <t>https://steamcommunity.com/market/listings/753/658550-Zup! Zero 2 Booster Pack</t>
+        </is>
+      </c>
     </row>
     <row r="985">
       <c r="A985" t="n">
@@ -31959,8 +32719,16 @@
           <t>1,47 TL</t>
         </is>
       </c>
-      <c r="F985" t="inlineStr"/>
-      <c r="G985" t="inlineStr"/>
+      <c r="F985" t="inlineStr">
+        <is>
+          <t>2,20 TL</t>
+        </is>
+      </c>
+      <c r="G985" t="inlineStr">
+        <is>
+          <t>https://steamcommunity.com/market/listings/753/673800-Zup! XS Booster Pack</t>
+        </is>
+      </c>
     </row>
     <row r="986">
       <c r="A986" t="n">
@@ -31984,8 +32752,16 @@
           <t>1,47 TL</t>
         </is>
       </c>
-      <c r="F986" t="inlineStr"/>
-      <c r="G986" t="inlineStr"/>
+      <c r="F986" t="inlineStr">
+        <is>
+          <t>1,34 TL</t>
+        </is>
+      </c>
+      <c r="G986" t="inlineStr">
+        <is>
+          <t>https://steamcommunity.com/market/listings/753/562220-Zup! 2 Booster Pack</t>
+        </is>
+      </c>
     </row>
     <row r="987">
       <c r="A987" t="n">
@@ -32009,8 +32785,16 @@
           <t>1,47 TL</t>
         </is>
       </c>
-      <c r="F987" t="inlineStr"/>
-      <c r="G987" t="inlineStr"/>
+      <c r="F987" t="inlineStr">
+        <is>
+          <t>2,66 TL</t>
+        </is>
+      </c>
+      <c r="G987" t="inlineStr">
+        <is>
+          <t>https://steamcommunity.com/market/listings/753/566160-Zup! 6 Booster Pack</t>
+        </is>
+      </c>
     </row>
     <row r="988">
       <c r="A988" t="n">
@@ -32034,8 +32818,16 @@
           <t>1,47 TL</t>
         </is>
       </c>
-      <c r="F988" t="inlineStr"/>
-      <c r="G988" t="inlineStr"/>
+      <c r="F988" t="inlineStr">
+        <is>
+          <t>2,59 TL</t>
+        </is>
+      </c>
+      <c r="G988" t="inlineStr">
+        <is>
+          <t>https://steamcommunity.com/market/listings/753/591420-Zup! 4 Booster Pack</t>
+        </is>
+      </c>
     </row>
     <row r="989">
       <c r="A989" t="n">
@@ -32059,8 +32851,16 @@
           <t>1,47 TL</t>
         </is>
       </c>
-      <c r="F989" t="inlineStr"/>
-      <c r="G989" t="inlineStr"/>
+      <c r="F989" t="inlineStr">
+        <is>
+          <t>1,57 TL</t>
+        </is>
+      </c>
+      <c r="G989" t="inlineStr">
+        <is>
+          <t>https://steamcommunity.com/market/listings/753/575640-Zup! 3 Booster Pack</t>
+        </is>
+      </c>
     </row>
     <row r="990">
       <c r="A990" t="n">
@@ -32084,8 +32884,16 @@
           <t>1,47 TL</t>
         </is>
       </c>
-      <c r="F990" t="inlineStr"/>
-      <c r="G990" t="inlineStr"/>
+      <c r="F990" t="inlineStr">
+        <is>
+          <t>2,45 TL</t>
+        </is>
+      </c>
+      <c r="G990" t="inlineStr">
+        <is>
+          <t>https://steamcommunity.com/market/listings/753/610360-Zup! Zero Booster Pack</t>
+        </is>
+      </c>
     </row>
     <row r="991">
       <c r="A991" t="n">
@@ -32109,8 +32917,16 @@
           <t>1,47 TL</t>
         </is>
       </c>
-      <c r="F991" t="inlineStr"/>
-      <c r="G991" t="inlineStr"/>
+      <c r="F991" t="inlineStr">
+        <is>
+          <t>2,22 TL</t>
+        </is>
+      </c>
+      <c r="G991" t="inlineStr">
+        <is>
+          <t>https://steamcommunity.com/market/listings/753/1157750-CATGIRL LOVER 2 Booster Pack</t>
+        </is>
+      </c>
     </row>
     <row r="992">
       <c r="A992" t="n">
@@ -32134,8 +32950,16 @@
           <t>1,47 TL</t>
         </is>
       </c>
-      <c r="F992" t="inlineStr"/>
-      <c r="G992" t="inlineStr"/>
+      <c r="F992" t="inlineStr">
+        <is>
+          <t>3,13 TL</t>
+        </is>
+      </c>
+      <c r="G992" t="inlineStr">
+        <is>
+          <t>https://steamcommunity.com/market/listings/753/1129220-BEARS, VODKA, BALALAIKA! 🐻 Booster Pack</t>
+        </is>
+      </c>
     </row>
     <row r="993">
       <c r="A993" t="n">
@@ -32159,8 +32983,16 @@
           <t>1,47 TL</t>
         </is>
       </c>
-      <c r="F993" t="inlineStr"/>
-      <c r="G993" t="inlineStr"/>
+      <c r="F993" t="inlineStr">
+        <is>
+          <t>1,34 TL</t>
+        </is>
+      </c>
+      <c r="G993" t="inlineStr">
+        <is>
+          <t>https://steamcommunity.com/market/listings/753/1096720-CATGIRL LOVER Booster Pack</t>
+        </is>
+      </c>
     </row>
     <row r="994">
       <c r="A994" t="n">
@@ -32184,8 +33016,16 @@
           <t>1,47 TL</t>
         </is>
       </c>
-      <c r="F994" t="inlineStr"/>
-      <c r="G994" t="inlineStr"/>
+      <c r="F994" t="inlineStr">
+        <is>
+          <t>3,82 TL</t>
+        </is>
+      </c>
+      <c r="G994" t="inlineStr">
+        <is>
+          <t>https://steamcommunity.com/market/listings/753/756880-NVL Booster Pack</t>
+        </is>
+      </c>
     </row>
     <row r="995">
       <c r="A995" t="n">
@@ -32209,8 +33049,16 @@
           <t>1,47 TL</t>
         </is>
       </c>
-      <c r="F995" t="inlineStr"/>
-      <c r="G995" t="inlineStr"/>
+      <c r="F995" t="inlineStr">
+        <is>
+          <t>2,32 TL</t>
+        </is>
+      </c>
+      <c r="G995" t="inlineStr">
+        <is>
+          <t>https://steamcommunity.com/market/listings/753/757330-qop 2 Booster Pack</t>
+        </is>
+      </c>
     </row>
     <row r="996">
       <c r="A996" t="n">
@@ -32234,8 +33082,16 @@
           <t>1,47 TL</t>
         </is>
       </c>
-      <c r="F996" t="inlineStr"/>
-      <c r="G996" t="inlineStr"/>
+      <c r="F996" t="inlineStr">
+        <is>
+          <t>2,62 TL</t>
+        </is>
+      </c>
+      <c r="G996" t="inlineStr">
+        <is>
+          <t>https://steamcommunity.com/market/listings/753/864300-qop 3 Booster Pack</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
